--- a/Shared_Repository/dataset_files/EngEdu_survey.xlsx
+++ b/Shared_Repository/dataset_files/EngEdu_survey.xlsx
@@ -5,18 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadot\Documents\Data Science\Stat Data Analysis Compe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadot\Documents\Data Science\Stat Data Analysis Compe\EngEduSituation_Survey_2021-\Shared_Repository\dataset_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D06C977-12BA-4C4B-972A-2972FF54AAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C4834-1FB6-4965-84E7-DCC199769F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eng_analysis" sheetId="4" r:id="rId1"/>
     <sheet name="Eng_research(67raw_42items)" sheetId="1" r:id="rId2"/>
-    <sheet name="SSDSE" sheetId="2" r:id="rId3"/>
-    <sheet name="Total" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="158">
   <si>
     <t>北海道</t>
   </si>
@@ -170,10 +168,6 @@
   </si>
   <si>
     <t>沖縄</t>
-  </si>
-  <si>
-    <t>Pref</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>札幌市</t>
@@ -683,7 +677,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,12 +692,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -711,12 +699,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -764,14 +746,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -782,7 +762,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1066,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEAE443-CDFF-48C6-B5C7-A8B98BE21CF8}">
   <dimension ref="A1:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="50" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1076,210 +1061,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="K1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="Z1" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="18">
         <v>28153</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="18">
         <v>25621</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="18">
         <v>248</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="20">
         <v>469</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="18">
         <v>14811</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="18">
         <v>8007</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="18">
         <v>9048</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="18">
         <v>3624</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="18">
         <v>4377</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="18">
         <v>7778</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="18">
         <v>171</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="18">
         <v>204</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="18">
         <v>227</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="18">
         <v>381</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="18">
         <v>0.50700000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="18">
         <v>0.224</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="18">
         <v>0.28400000000000003</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="18">
         <v>0.54100000000000004</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="18">
         <v>0.56400000000000006</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="18">
         <v>0.19600000000000001</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="18">
         <v>0.23</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="18">
         <v>0.60299999999999998</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="18">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="18">
         <v>0.96599999999999997</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="18">
         <v>94</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="18">
         <v>323</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="18">
         <v>0.67300000000000004</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="18">
         <v>0.84399999999999997</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="18">
         <v>0.625</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="18">
         <v>0.41799999999999998</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="18">
         <v>0.91</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="18">
         <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="16" t="s">
-        <v>105</v>
+      <c r="A3" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="B3">
         <v>7490</v>
@@ -1290,7 +1275,7 @@
       <c r="D3">
         <v>68</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>149</v>
       </c>
       <c r="F3">
@@ -1379,8 +1364,8 @@
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="16" t="s">
-        <v>106</v>
+      <c r="A4" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="B4">
         <v>7958</v>
@@ -1391,7 +1376,7 @@
       <c r="D4">
         <v>90</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>149</v>
       </c>
       <c r="F4">
@@ -1480,8 +1465,8 @@
       </c>
     </row>
     <row r="5" spans="1:33">
-      <c r="A5" s="16" t="s">
-        <v>107</v>
+      <c r="A5" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="B5">
         <v>13650</v>
@@ -1492,7 +1477,7 @@
       <c r="D5">
         <v>92</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>132</v>
       </c>
       <c r="F5">
@@ -1581,8 +1566,8 @@
       </c>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="16" t="s">
-        <v>108</v>
+      <c r="A6" s="14" t="s">
+        <v>107</v>
       </c>
       <c r="B6">
         <v>6300</v>
@@ -1593,7 +1578,7 @@
       <c r="D6">
         <v>69</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>109</v>
       </c>
       <c r="F6">
@@ -1682,8 +1667,8 @@
       </c>
     </row>
     <row r="7" spans="1:33">
-      <c r="A7" s="16" t="s">
-        <v>109</v>
+      <c r="A7" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="B7">
         <v>6094</v>
@@ -1694,7 +1679,7 @@
       <c r="D7">
         <v>64</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>94</v>
       </c>
       <c r="F7">
@@ -1783,8 +1768,8 @@
       </c>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" s="16" t="s">
-        <v>110</v>
+      <c r="A8" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="B8">
         <v>12367</v>
@@ -1795,7 +1780,7 @@
       <c r="D8">
         <v>107</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>215</v>
       </c>
       <c r="F8">
@@ -1884,8 +1869,8 @@
       </c>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" s="16" t="s">
-        <v>111</v>
+      <c r="A9" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="B9">
         <v>17679</v>
@@ -1896,7 +1881,7 @@
       <c r="D9">
         <v>138</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>228</v>
       </c>
       <c r="F9">
@@ -1985,8 +1970,8 @@
       </c>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" s="16" t="s">
-        <v>112</v>
+      <c r="A10" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="B10">
         <v>11308</v>
@@ -1997,7 +1982,7 @@
       <c r="D10">
         <v>86</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>156</v>
       </c>
       <c r="F10">
@@ -2086,8 +2071,8 @@
       </c>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="16" t="s">
-        <v>113</v>
+      <c r="A11" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="B11">
         <v>11910</v>
@@ -2098,7 +2083,7 @@
       <c r="D11">
         <v>80</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>161</v>
       </c>
       <c r="F11">
@@ -2187,8 +2172,8 @@
       </c>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="16" t="s">
-        <v>114</v>
+      <c r="A12" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="B12">
         <v>36573</v>
@@ -2199,7 +2184,7 @@
       <c r="D12">
         <v>182</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>356</v>
       </c>
       <c r="F12">
@@ -2288,8 +2273,8 @@
       </c>
     </row>
     <row r="13" spans="1:33">
-      <c r="A13" s="16" t="s">
-        <v>115</v>
+      <c r="A13" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="B13">
         <v>31205</v>
@@ -2300,7 +2285,7 @@
       <c r="D13">
         <v>175</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>312</v>
       </c>
       <c r="F13">
@@ -2389,8 +2374,8 @@
       </c>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="16" t="s">
-        <v>116</v>
+      <c r="A14" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="B14">
         <v>39922</v>
@@ -2401,7 +2386,7 @@
       <c r="D14">
         <v>193</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>622</v>
       </c>
       <c r="F14">
@@ -2490,8 +2475,8 @@
       </c>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="16" t="s">
-        <v>117</v>
+      <c r="A15" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="B15">
         <v>41270</v>
@@ -2502,7 +2487,7 @@
       <c r="D15">
         <v>154</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>175</v>
       </c>
       <c r="F15">
@@ -2591,8 +2576,8 @@
       </c>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="16" t="s">
-        <v>118</v>
+      <c r="A16" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="B16">
         <v>12997</v>
@@ -2603,7 +2588,7 @@
       <c r="D16">
         <v>91</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>173</v>
       </c>
       <c r="F16">
@@ -2692,8 +2677,8 @@
       </c>
     </row>
     <row r="17" spans="1:33">
-      <c r="A17" s="16" t="s">
-        <v>119</v>
+      <c r="A17" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="B17">
         <v>6504</v>
@@ -2704,7 +2689,7 @@
       <c r="D17">
         <v>64</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>77</v>
       </c>
       <c r="F17">
@@ -2793,8 +2778,8 @@
       </c>
     </row>
     <row r="18" spans="1:33">
-      <c r="A18" s="16" t="s">
-        <v>120</v>
+      <c r="A18" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="B18">
         <v>6910</v>
@@ -2805,7 +2790,7 @@
       <c r="D18">
         <v>53</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>84</v>
       </c>
       <c r="F18">
@@ -2894,8 +2879,8 @@
       </c>
     </row>
     <row r="19" spans="1:33">
-      <c r="A19" s="16" t="s">
-        <v>121</v>
+      <c r="A19" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="B19">
         <v>4685</v>
@@ -2906,7 +2891,7 @@
       <c r="D19">
         <v>48</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>75</v>
       </c>
       <c r="F19">
@@ -2995,8 +2980,8 @@
       </c>
     </row>
     <row r="20" spans="1:33">
-      <c r="A20" s="16" t="s">
-        <v>122</v>
+      <c r="A20" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="B20">
         <v>5361</v>
@@ -3007,7 +2992,7 @@
       <c r="D20">
         <v>43</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>80</v>
       </c>
       <c r="F20">
@@ -3096,8 +3081,8 @@
       </c>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="16" t="s">
-        <v>123</v>
+      <c r="A21" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="B21">
         <v>13555</v>
@@ -3108,7 +3093,7 @@
       <c r="D21">
         <v>129</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>186</v>
       </c>
       <c r="F21">
@@ -3197,8 +3182,8 @@
       </c>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="16" t="s">
-        <v>124</v>
+      <c r="A22" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="B22">
         <v>13214</v>
@@ -3209,7 +3194,7 @@
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>177</v>
       </c>
       <c r="F22">
@@ -3298,8 +3283,8 @@
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="16" t="s">
-        <v>125</v>
+      <c r="A23" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="B23">
         <v>19917</v>
@@ -3310,7 +3295,7 @@
       <c r="D23">
         <v>121</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>169</v>
       </c>
       <c r="F23">
@@ -3399,8 +3384,8 @@
       </c>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" s="16" t="s">
-        <v>126</v>
+      <c r="A24" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="B24">
         <v>40405</v>
@@ -3411,7 +3396,7 @@
       <c r="D24">
         <v>181</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>302</v>
       </c>
       <c r="F24">
@@ -3500,8 +3485,8 @@
       </c>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="16" t="s">
-        <v>127</v>
+      <c r="A25" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="B25">
         <v>11164</v>
@@ -3512,7 +3497,7 @@
       <c r="D25">
         <v>81</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>149</v>
       </c>
       <c r="F25">
@@ -3601,8 +3586,8 @@
       </c>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="16" t="s">
-        <v>128</v>
+      <c r="A26" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="B26">
         <v>9464</v>
@@ -3613,7 +3598,7 @@
       <c r="D26">
         <v>52</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>98</v>
       </c>
       <c r="F26">
@@ -3702,8 +3687,8 @@
       </c>
     </row>
     <row r="27" spans="1:33">
-      <c r="A27" s="16" t="s">
-        <v>129</v>
+      <c r="A27" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="B27">
         <v>11517</v>
@@ -3714,7 +3699,7 @@
       <c r="D27">
         <v>75</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>97</v>
       </c>
       <c r="F27">
@@ -3803,8 +3788,8 @@
       </c>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="16" t="s">
-        <v>130</v>
+      <c r="A28" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="B28">
         <v>37681</v>
@@ -3815,7 +3800,7 @@
       <c r="D28">
         <v>153</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>286</v>
       </c>
       <c r="F28">
@@ -3904,8 +3889,8 @@
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="16" t="s">
-        <v>131</v>
+      <c r="A29" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="B29">
         <v>30647</v>
@@ -3916,7 +3901,7 @@
       <c r="D29">
         <v>185</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>258</v>
       </c>
       <c r="F29">
@@ -4005,8 +3990,8 @@
       </c>
     </row>
     <row r="30" spans="1:33">
-      <c r="A30" s="16" t="s">
-        <v>132</v>
+      <c r="A30" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="B30">
         <v>7643</v>
@@ -4017,7 +4002,7 @@
       <c r="D30">
         <v>59</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>100</v>
       </c>
       <c r="F30">
@@ -4106,8 +4091,8 @@
       </c>
     </row>
     <row r="31" spans="1:33">
-      <c r="A31" s="16" t="s">
-        <v>133</v>
+      <c r="A31" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="B31">
         <v>6232</v>
@@ -4118,7 +4103,7 @@
       <c r="D31">
         <v>50</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>117</v>
       </c>
       <c r="F31">
@@ -4207,8 +4192,8 @@
       </c>
     </row>
     <row r="32" spans="1:33">
-      <c r="A32" s="16" t="s">
-        <v>134</v>
+      <c r="A32" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="B32">
         <v>3528</v>
@@ -4219,7 +4204,7 @@
       <c r="D32">
         <v>29</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>56</v>
       </c>
       <c r="F32">
@@ -4308,8 +4293,8 @@
       </c>
     </row>
     <row r="33" spans="1:33">
-      <c r="A33" s="16" t="s">
-        <v>135</v>
+      <c r="A33" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="B33">
         <v>4306</v>
@@ -4320,7 +4305,7 @@
       <c r="D33">
         <v>49</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>92</v>
       </c>
       <c r="F33">
@@ -4409,8 +4394,8 @@
       </c>
     </row>
     <row r="34" spans="1:33">
-      <c r="A34" s="16" t="s">
-        <v>136</v>
+      <c r="A34" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="B34">
         <v>11056</v>
@@ -4421,7 +4406,7 @@
       <c r="D34">
         <v>88</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>116</v>
       </c>
       <c r="F34">
@@ -4510,8 +4495,8 @@
       </c>
     </row>
     <row r="35" spans="1:33">
-      <c r="A35" s="16" t="s">
-        <v>137</v>
+      <c r="A35" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="B35">
         <v>14301</v>
@@ -4522,7 +4507,7 @@
       <c r="D35">
         <v>96</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>173</v>
       </c>
       <c r="F35">
@@ -4611,8 +4596,8 @@
       </c>
     </row>
     <row r="36" spans="1:33">
-      <c r="A36" s="16" t="s">
-        <v>138</v>
+      <c r="A36" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="B36">
         <v>7174</v>
@@ -4623,7 +4608,7 @@
       <c r="D36">
         <v>75</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>139</v>
       </c>
       <c r="F36">
@@ -4712,8 +4697,8 @@
       </c>
     </row>
     <row r="37" spans="1:33">
-      <c r="A37" s="16" t="s">
-        <v>139</v>
+      <c r="A37" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="B37">
         <v>5485</v>
@@ -4724,7 +4709,7 @@
       <c r="D37">
         <v>51</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>80</v>
       </c>
       <c r="F37">
@@ -4813,8 +4798,8 @@
       </c>
     </row>
     <row r="38" spans="1:33">
-      <c r="A38" s="16" t="s">
-        <v>140</v>
+      <c r="A38" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="B38">
         <v>6246</v>
@@ -4825,7 +4810,7 @@
       <c r="D38">
         <v>50</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>65</v>
       </c>
       <c r="F38">
@@ -4914,8 +4899,8 @@
       </c>
     </row>
     <row r="39" spans="1:33">
-      <c r="A39" s="16" t="s">
-        <v>141</v>
+      <c r="A39" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="B39">
         <v>8129</v>
@@ -4926,7 +4911,7 @@
       <c r="D39">
         <v>67</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>128</v>
       </c>
       <c r="F39">
@@ -5015,8 +5000,8 @@
       </c>
     </row>
     <row r="40" spans="1:33">
-      <c r="A40" s="16" t="s">
-        <v>142</v>
+      <c r="A40" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="B40">
         <v>3816</v>
@@ -5027,7 +5012,7 @@
       <c r="D40">
         <v>44</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>102</v>
       </c>
       <c r="F40">
@@ -5116,8 +5101,8 @@
       </c>
     </row>
     <row r="41" spans="1:33">
-      <c r="A41" s="16" t="s">
-        <v>143</v>
+      <c r="A41" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="B41">
         <v>22860</v>
@@ -5128,7 +5113,7 @@
       <c r="D41">
         <v>138</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>202</v>
       </c>
       <c r="F41">
@@ -5217,8 +5202,8 @@
       </c>
     </row>
     <row r="42" spans="1:33">
-      <c r="A42" s="16" t="s">
-        <v>144</v>
+      <c r="A42" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="B42">
         <v>5545</v>
@@ -5229,7 +5214,7 @@
       <c r="D42">
         <v>40</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>90</v>
       </c>
       <c r="F42">
@@ -5318,8 +5303,8 @@
       </c>
     </row>
     <row r="43" spans="1:33">
-      <c r="A43" s="16" t="s">
-        <v>145</v>
+      <c r="A43" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="B43">
         <v>7509</v>
@@ -5330,7 +5315,7 @@
       <c r="D43">
         <v>76</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>167</v>
       </c>
       <c r="F43">
@@ -5419,8 +5404,8 @@
       </c>
     </row>
     <row r="44" spans="1:33">
-      <c r="A44" s="16" t="s">
-        <v>146</v>
+      <c r="A44" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="B44">
         <v>9150</v>
@@ -5431,7 +5416,7 @@
       <c r="D44">
         <v>80</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>121</v>
       </c>
       <c r="F44">
@@ -5520,8 +5505,8 @@
       </c>
     </row>
     <row r="45" spans="1:33">
-      <c r="A45" s="16" t="s">
-        <v>147</v>
+      <c r="A45" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="B45">
         <v>6678</v>
@@ -5532,7 +5517,7 @@
       <c r="D45">
         <v>63</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>118</v>
       </c>
       <c r="F45">
@@ -5621,8 +5606,8 @@
       </c>
     </row>
     <row r="46" spans="1:33">
-      <c r="A46" s="16" t="s">
-        <v>148</v>
+      <c r="A46" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="B46">
         <v>6627</v>
@@ -5633,7 +5618,7 @@
       <c r="D46">
         <v>79</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>126</v>
       </c>
       <c r="F46">
@@ -5722,8 +5707,8 @@
       </c>
     </row>
     <row r="47" spans="1:33">
-      <c r="A47" s="16" t="s">
-        <v>149</v>
+      <c r="A47" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="B47">
         <v>9348</v>
@@ -5734,7 +5719,7 @@
       <c r="D47">
         <v>114</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>213</v>
       </c>
       <c r="F47">
@@ -5823,8 +5808,8 @@
       </c>
     </row>
     <row r="48" spans="1:33">
-      <c r="A48" s="16" t="s">
-        <v>150</v>
+      <c r="A48" s="14" t="s">
+        <v>149</v>
       </c>
       <c r="B48">
         <v>12872</v>
@@ -5835,7 +5820,7 @@
       <c r="D48">
         <v>102</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>139</v>
       </c>
       <c r="F48">
@@ -5924,8 +5909,8 @@
       </c>
     </row>
     <row r="49" spans="1:33">
-      <c r="A49" s="17" t="s">
-        <v>48</v>
+      <c r="A49" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C49">
         <v>14287</v>
@@ -5933,7 +5918,7 @@
       <c r="D49">
         <v>7</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>98</v>
       </c>
       <c r="G49">
@@ -6013,8 +5998,8 @@
       </c>
     </row>
     <row r="50" spans="1:33">
-      <c r="A50" s="17" t="s">
-        <v>49</v>
+      <c r="A50" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C50">
         <v>8270</v>
@@ -6022,7 +6007,7 @@
       <c r="D50">
         <v>4</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>65</v>
       </c>
       <c r="G50">
@@ -6102,8 +6087,8 @@
       </c>
     </row>
     <row r="51" spans="1:33">
-      <c r="A51" s="17" t="s">
-        <v>50</v>
+      <c r="A51" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C51">
         <v>10414</v>
@@ -6111,7 +6096,7 @@
       <c r="D51">
         <v>4</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>59</v>
       </c>
       <c r="G51">
@@ -6191,8 +6176,8 @@
       </c>
     </row>
     <row r="52" spans="1:33">
-      <c r="A52" s="17" t="s">
-        <v>51</v>
+      <c r="A52" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="C52">
         <v>7583</v>
@@ -6200,7 +6185,7 @@
       <c r="D52">
         <v>4</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>54</v>
       </c>
       <c r="G52">
@@ -6280,8 +6265,8 @@
       </c>
     </row>
     <row r="53" spans="1:33">
-      <c r="A53" s="17" t="s">
-        <v>52</v>
+      <c r="A53" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="C53">
         <v>9828</v>
@@ -6289,7 +6274,7 @@
       <c r="D53">
         <v>15</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>52</v>
       </c>
       <c r="G53">
@@ -6369,8 +6354,8 @@
       </c>
     </row>
     <row r="54" spans="1:33">
-      <c r="A54" s="17" t="s">
-        <v>53</v>
+      <c r="A54" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="C54">
         <v>25894</v>
@@ -6378,7 +6363,7 @@
       <c r="D54">
         <v>9</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>146</v>
       </c>
       <c r="G54">
@@ -6399,7 +6384,7 @@
       <c r="N54">
         <v>61</v>
       </c>
-      <c r="O54" s="8">
+      <c r="O54" s="7">
         <v>80</v>
       </c>
       <c r="P54">
@@ -6458,101 +6443,101 @@
       </c>
     </row>
     <row r="55" spans="1:33">
-      <c r="A55" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8">
+      <c r="A55" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7">
         <v>5565</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="10">
         <v>0</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <v>36</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8">
+      <c r="F55" s="7"/>
+      <c r="G55" s="7">
         <v>1669</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8">
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7">
         <v>1003</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="7">
         <v>868</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="10">
         <v>0</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M55" s="10">
         <v>0</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="7">
         <v>22</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O55" s="7">
         <v>21</v>
       </c>
-      <c r="P55" s="11">
+      <c r="P55" s="10">
         <v>0</v>
       </c>
-      <c r="Q55" s="11">
+      <c r="Q55" s="10">
         <v>0</v>
       </c>
-      <c r="R55" s="8">
+      <c r="R55" s="7">
         <v>0.192</v>
       </c>
-      <c r="S55" s="8">
+      <c r="S55" s="7">
         <v>0.51</v>
       </c>
-      <c r="T55" s="11">
+      <c r="T55" s="10">
         <v>0</v>
       </c>
-      <c r="U55" s="11">
+      <c r="U55" s="10">
         <v>0</v>
       </c>
-      <c r="V55" s="8">
+      <c r="V55" s="7">
         <v>0.192</v>
       </c>
-      <c r="W55" s="8">
+      <c r="W55" s="7">
         <v>0.63100000000000001</v>
       </c>
-      <c r="X55" s="11">
+      <c r="X55" s="10">
         <v>0</v>
       </c>
-      <c r="Y55" s="8">
+      <c r="Y55" s="7">
         <v>0.85199999999999998</v>
       </c>
-      <c r="Z55" s="11">
+      <c r="Z55" s="10">
         <v>0</v>
       </c>
-      <c r="AA55" s="8">
+      <c r="AA55" s="7">
         <v>26</v>
       </c>
-      <c r="AB55" s="11">
+      <c r="AB55" s="10">
         <v>0</v>
       </c>
-      <c r="AC55" s="8">
+      <c r="AC55" s="7">
         <v>0.75</v>
       </c>
-      <c r="AD55" s="11">
+      <c r="AD55" s="10">
         <v>0</v>
       </c>
-      <c r="AE55" s="11">
+      <c r="AE55" s="10">
         <v>0</v>
       </c>
-      <c r="AF55" s="8">
+      <c r="AF55" s="7">
         <v>0.88900000000000001</v>
       </c>
-      <c r="AG55" s="8">
+      <c r="AG55" s="7">
         <v>0.69400000000000006</v>
       </c>
     </row>
     <row r="56" spans="1:33">
-      <c r="A56" s="17" t="s">
-        <v>54</v>
+      <c r="A56" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="C56">
         <v>6343</v>
@@ -6560,7 +6545,7 @@
       <c r="D56">
         <v>3</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="13">
         <v>57</v>
       </c>
       <c r="G56">
@@ -6620,7 +6605,7 @@
       <c r="AA56">
         <v>47</v>
       </c>
-      <c r="AB56" s="9">
+      <c r="AB56" s="8">
         <v>0</v>
       </c>
       <c r="AC56">
@@ -6640,8 +6625,8 @@
       </c>
     </row>
     <row r="57" spans="1:33">
-      <c r="A57" s="17" t="s">
-        <v>55</v>
+      <c r="A57" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C57">
         <v>4859</v>
@@ -6649,7 +6634,7 @@
       <c r="D57">
         <v>4</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="13">
         <v>43</v>
       </c>
       <c r="G57">
@@ -6661,7 +6646,7 @@
       <c r="K57">
         <v>1401</v>
       </c>
-      <c r="L57" s="8">
+      <c r="L57" s="7">
         <v>4</v>
       </c>
       <c r="M57">
@@ -6729,8 +6714,8 @@
       </c>
     </row>
     <row r="58" spans="1:33">
-      <c r="A58" s="17" t="s">
-        <v>56</v>
+      <c r="A58" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="C58">
         <v>6718</v>
@@ -6738,7 +6723,7 @@
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="13">
         <v>48</v>
       </c>
       <c r="G58">
@@ -6798,7 +6783,7 @@
       <c r="AA58">
         <v>67</v>
       </c>
-      <c r="AB58" s="19">
+      <c r="AB58" s="17">
         <v>0</v>
       </c>
       <c r="AC58">
@@ -6818,8 +6803,8 @@
       </c>
     </row>
     <row r="59" spans="1:33">
-      <c r="A59" s="17" t="s">
-        <v>57</v>
+      <c r="A59" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="C59">
         <v>16595</v>
@@ -6827,7 +6812,7 @@
       <c r="D59">
         <v>17</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>110</v>
       </c>
       <c r="G59">
@@ -6907,8 +6892,8 @@
       </c>
     </row>
     <row r="60" spans="1:33">
-      <c r="A60" s="17" t="s">
-        <v>58</v>
+      <c r="A60" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="C60">
         <v>9343</v>
@@ -6916,7 +6901,7 @@
       <c r="D60">
         <v>12</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>72</v>
       </c>
       <c r="G60">
@@ -6996,8 +6981,8 @@
       </c>
     </row>
     <row r="61" spans="1:33">
-      <c r="A61" s="17" t="s">
-        <v>59</v>
+      <c r="A61" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="C61">
         <v>16955</v>
@@ -7005,7 +6990,7 @@
       <c r="D61">
         <v>39</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>130</v>
       </c>
       <c r="G61">
@@ -7085,8 +7070,8 @@
       </c>
     </row>
     <row r="62" spans="1:33">
-      <c r="A62" s="17" t="s">
-        <v>60</v>
+      <c r="A62" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="C62">
         <v>7141</v>
@@ -7094,7 +7079,7 @@
       <c r="D62">
         <v>3</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>43</v>
       </c>
       <c r="G62">
@@ -7174,8 +7159,8 @@
       </c>
     </row>
     <row r="63" spans="1:33">
-      <c r="A63" s="17" t="s">
-        <v>61</v>
+      <c r="A63" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="C63">
         <v>11410</v>
@@ -7183,7 +7168,7 @@
       <c r="D63">
         <v>6</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>82</v>
       </c>
       <c r="G63">
@@ -7263,8 +7248,8 @@
       </c>
     </row>
     <row r="64" spans="1:33">
-      <c r="A64" s="17" t="s">
-        <v>62</v>
+      <c r="A64" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="C64">
         <v>5695</v>
@@ -7272,7 +7257,7 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>38</v>
       </c>
       <c r="G64">
@@ -7352,8 +7337,8 @@
       </c>
     </row>
     <row r="65" spans="1:33">
-      <c r="A65" s="17" t="s">
-        <v>63</v>
+      <c r="A65" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="C65">
         <v>9390</v>
@@ -7361,7 +7346,7 @@
       <c r="D65">
         <v>7</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>64</v>
       </c>
       <c r="G65">
@@ -7441,8 +7426,8 @@
       </c>
     </row>
     <row r="66" spans="1:33">
-      <c r="A66" s="17" t="s">
-        <v>64</v>
+      <c r="A66" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="C66">
         <v>7401</v>
@@ -7450,7 +7435,7 @@
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>62</v>
       </c>
       <c r="G66">
@@ -7530,8 +7515,8 @@
       </c>
     </row>
     <row r="67" spans="1:33">
-      <c r="A67" s="17" t="s">
-        <v>65</v>
+      <c r="A67" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C67">
         <v>12183</v>
@@ -7539,7 +7524,7 @@
       <c r="D67">
         <v>14</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>69</v>
       </c>
       <c r="G67">
@@ -7619,8 +7604,8 @@
       </c>
     </row>
     <row r="68" spans="1:33">
-      <c r="A68" s="17" t="s">
-        <v>66</v>
+      <c r="A68" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="C68">
         <v>6235</v>
@@ -7628,7 +7613,7 @@
       <c r="D68">
         <v>3</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>42</v>
       </c>
       <c r="G68">
@@ -7718,142 +7703,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS69"/>
   <sheetViews>
-    <sheetView zoomScale="51" zoomScaleNormal="41" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA1" sqref="BA1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="51" zoomScaleNormal="41" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="L1" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="AE1" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" t="s">
         <v>96</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>98</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>99</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>100</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:43">
@@ -7869,10 +7854,10 @@
       <c r="D2">
         <v>248</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>469</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>782</v>
       </c>
       <c r="G2">
@@ -8000,10 +7985,10 @@
       <c r="D3">
         <v>68</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>149</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>261</v>
       </c>
       <c r="G3">
@@ -8131,10 +8116,10 @@
       <c r="D4">
         <v>90</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>149</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>296</v>
       </c>
       <c r="G4">
@@ -8262,10 +8247,10 @@
       <c r="D5">
         <v>92</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>132</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>245</v>
       </c>
       <c r="G5">
@@ -8393,10 +8378,10 @@
       <c r="D6">
         <v>69</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>109</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>181</v>
       </c>
       <c r="G6">
@@ -8524,10 +8509,10 @@
       <c r="D7">
         <v>64</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>94</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>232</v>
       </c>
       <c r="G7">
@@ -8655,10 +8640,10 @@
       <c r="D8">
         <v>107</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>215</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>404</v>
       </c>
       <c r="G8">
@@ -8786,10 +8771,10 @@
       <c r="D9">
         <v>138</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>228</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>470</v>
       </c>
       <c r="G9">
@@ -8917,10 +8902,10 @@
       <c r="D10">
         <v>86</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>156</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>351</v>
       </c>
       <c r="G10">
@@ -9048,10 +9033,10 @@
       <c r="D11">
         <v>80</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>161</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>301</v>
       </c>
       <c r="G11">
@@ -9179,10 +9164,10 @@
       <c r="D12">
         <v>182</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>356</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>701</v>
       </c>
       <c r="G12">
@@ -9310,10 +9295,10 @@
       <c r="D13">
         <v>175</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>312</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>645</v>
       </c>
       <c r="G13">
@@ -9441,10 +9426,10 @@
       <c r="D14">
         <v>193</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>622</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>1276</v>
       </c>
       <c r="G14">
@@ -9572,10 +9557,10 @@
       <c r="D15">
         <v>154</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>175</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>326</v>
       </c>
       <c r="G15">
@@ -9703,10 +9688,10 @@
       <c r="D16">
         <v>91</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>173</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>335</v>
       </c>
       <c r="G16">
@@ -9834,10 +9819,10 @@
       <c r="D17">
         <v>64</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>77</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>179</v>
       </c>
       <c r="G17">
@@ -9965,10 +9950,10 @@
       <c r="D18">
         <v>53</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>84</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>201</v>
       </c>
       <c r="G18">
@@ -10096,10 +10081,10 @@
       <c r="D19">
         <v>48</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>75</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>185</v>
       </c>
       <c r="G19">
@@ -10227,10 +10212,10 @@
       <c r="D20">
         <v>43</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>80</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>166</v>
       </c>
       <c r="G20">
@@ -10358,10 +10343,10 @@
       <c r="D21">
         <v>129</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>186</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>354</v>
       </c>
       <c r="G21">
@@ -10489,10 +10474,10 @@
       <c r="D22">
         <v>92</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>177</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>361</v>
       </c>
       <c r="G22">
@@ -10620,10 +10605,10 @@
       <c r="D23">
         <v>121</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>169</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>310</v>
       </c>
       <c r="G23">
@@ -10751,10 +10736,10 @@
       <c r="D24">
         <v>181</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>302</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>701</v>
       </c>
       <c r="G24">
@@ -10882,10 +10867,10 @@
       <c r="D25">
         <v>81</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>149</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>342</v>
       </c>
       <c r="G25">
@@ -11013,10 +10998,10 @@
       <c r="D26">
         <v>52</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>98</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>220</v>
       </c>
       <c r="G26">
@@ -11144,10 +11129,10 @@
       <c r="D27">
         <v>75</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>97</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>198</v>
       </c>
       <c r="G27">
@@ -11275,10 +11260,10 @@
       <c r="D28">
         <v>153</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>286</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>598</v>
       </c>
       <c r="G28">
@@ -11406,10 +11391,10 @@
       <c r="D29">
         <v>185</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>258</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>575</v>
       </c>
       <c r="G29">
@@ -11537,10 +11522,10 @@
       <c r="D30">
         <v>59</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>100</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>192</v>
       </c>
       <c r="G30">
@@ -11668,10 +11653,10 @@
       <c r="D31">
         <v>50</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>117</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>230</v>
       </c>
       <c r="G31">
@@ -11799,10 +11784,10 @@
       <c r="D32">
         <v>29</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>56</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>121</v>
       </c>
       <c r="G32">
@@ -11930,10 +11915,10 @@
       <c r="D33">
         <v>49</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>92</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>197</v>
       </c>
       <c r="G33">
@@ -12061,10 +12046,10 @@
       <c r="D34">
         <v>88</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>116</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>289</v>
       </c>
       <c r="G34">
@@ -12192,10 +12177,10 @@
       <c r="D35">
         <v>96</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>173</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>315</v>
       </c>
       <c r="G35">
@@ -12323,10 +12308,10 @@
       <c r="D36">
         <v>75</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>139</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>274</v>
       </c>
       <c r="G36">
@@ -12454,10 +12439,10 @@
       <c r="D37">
         <v>51</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>80</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>165</v>
       </c>
       <c r="G37">
@@ -12585,10 +12570,10 @@
       <c r="D38">
         <v>50</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>65</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>151</v>
       </c>
       <c r="G38">
@@ -12716,10 +12701,10 @@
       <c r="D39">
         <v>67</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>128</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>271</v>
       </c>
       <c r="G39">
@@ -12847,10 +12832,10 @@
       <c r="D40">
         <v>44</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>102</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>186</v>
       </c>
       <c r="G40">
@@ -12978,10 +12963,10 @@
       <c r="D41">
         <v>138</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>202</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>438</v>
       </c>
       <c r="G41">
@@ -13109,10 +13094,10 @@
       <c r="D42">
         <v>40</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>90</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>161</v>
       </c>
       <c r="G42">
@@ -13240,10 +13225,10 @@
       <c r="D43">
         <v>76</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>167</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>310</v>
       </c>
       <c r="G43">
@@ -13371,10 +13356,10 @@
       <c r="D44">
         <v>80</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>121</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>239</v>
       </c>
       <c r="G44">
@@ -13502,10 +13487,10 @@
       <c r="D45">
         <v>63</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>118</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>249</v>
       </c>
       <c r="G45">
@@ -13633,10 +13618,10 @@
       <c r="D46">
         <v>79</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>126</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>229</v>
       </c>
       <c r="G46">
@@ -13764,10 +13749,10 @@
       <c r="D47">
         <v>114</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>213</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>495</v>
       </c>
       <c r="G47">
@@ -13895,127 +13880,127 @@
       <c r="D48">
         <v>102</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="11">
         <v>139</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="11">
         <v>257</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="12">
         <v>4404</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="12">
         <v>6980</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="12">
         <v>2214</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="12">
         <v>3232</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="12">
         <v>3989</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L48" s="12">
         <v>2864</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M48" s="12">
         <v>21</v>
       </c>
-      <c r="N48" s="14">
+      <c r="N48" s="12">
         <v>47</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O48" s="12">
         <v>64</v>
       </c>
-      <c r="P48" s="14">
+      <c r="P48" s="12">
         <v>85</v>
       </c>
-      <c r="Q48" s="14">
+      <c r="Q48" s="12">
         <v>24</v>
       </c>
-      <c r="R48" s="14">
+      <c r="R48" s="12">
         <v>116</v>
       </c>
-      <c r="S48" s="14">
+      <c r="S48" s="12">
         <v>0.36199999999999999</v>
       </c>
-      <c r="T48" s="14">
+      <c r="T48" s="12">
         <v>0.17</v>
       </c>
-      <c r="U48" s="14">
+      <c r="U48" s="12">
         <v>0.13300000000000001</v>
       </c>
-      <c r="V48" s="14">
+      <c r="V48" s="12">
         <v>0.505</v>
       </c>
-      <c r="W48" s="14">
+      <c r="W48" s="12">
         <v>0.504</v>
       </c>
-      <c r="X48" s="14">
+      <c r="X48" s="12">
         <v>0.42099999999999999</v>
       </c>
-      <c r="Y48" s="14">
+      <c r="Y48" s="12">
         <v>0.48499999999999999</v>
       </c>
-      <c r="Z48" s="14">
+      <c r="Z48" s="12">
         <v>0.14699999999999999</v>
       </c>
-      <c r="AA48" s="14">
+      <c r="AA48" s="12">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AB48" s="14">
+      <c r="AB48" s="12">
         <v>0.59799999999999998</v>
       </c>
-      <c r="AC48" s="14">
+      <c r="AC48" s="12">
         <v>0.48899999999999999</v>
       </c>
-      <c r="AD48" s="14">
+      <c r="AD48" s="12">
         <v>0.93500000000000005</v>
       </c>
-      <c r="AE48" s="14">
+      <c r="AE48" s="12">
         <v>49</v>
       </c>
-      <c r="AF48" s="14">
+      <c r="AF48" s="12">
         <v>111</v>
       </c>
-      <c r="AG48" s="14">
+      <c r="AG48" s="12">
         <v>225</v>
       </c>
-      <c r="AH48" s="14">
+      <c r="AH48" s="12">
         <v>342</v>
       </c>
-      <c r="AI48" s="14">
+      <c r="AI48" s="12">
         <v>0.79400000000000004</v>
       </c>
-      <c r="AJ48" s="14">
+      <c r="AJ48" s="12">
         <v>0.79100000000000004</v>
       </c>
-      <c r="AK48" s="14">
+      <c r="AK48" s="12">
         <v>0.66100000000000003</v>
       </c>
-      <c r="AL48" s="14">
+      <c r="AL48" s="12">
         <v>0.81</v>
       </c>
-      <c r="AM48" s="14">
+      <c r="AM48" s="12">
         <v>0.55200000000000005</v>
       </c>
-      <c r="AN48" s="14">
+      <c r="AN48" s="12">
         <v>0.84199999999999997</v>
       </c>
-      <c r="AO48" s="14">
+      <c r="AO48" s="12">
         <v>0.61199999999999999</v>
       </c>
-      <c r="AP48" s="14">
+      <c r="AP48" s="12">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AQ48" s="14">
+      <c r="AQ48" s="12">
         <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:45">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4">
@@ -14024,10 +14009,10 @@
       <c r="D49" s="4">
         <v>7</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>98</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>197</v>
       </c>
       <c r="H49">
@@ -14135,7 +14120,7 @@
     </row>
     <row r="50" spans="1:45">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>8270</v>
@@ -14143,10 +14128,10 @@
       <c r="D50">
         <v>4</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>65</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>118</v>
       </c>
       <c r="H50">
@@ -14254,7 +14239,7 @@
     </row>
     <row r="51" spans="1:45">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>10414</v>
@@ -14262,10 +14247,10 @@
       <c r="D51">
         <v>4</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>59</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>104</v>
       </c>
       <c r="H51">
@@ -14373,7 +14358,7 @@
     </row>
     <row r="52" spans="1:45">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52">
         <v>7583</v>
@@ -14381,10 +14366,10 @@
       <c r="D52">
         <v>4</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>54</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>108</v>
       </c>
       <c r="H52">
@@ -14492,7 +14477,7 @@
     </row>
     <row r="53" spans="1:45">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>9828</v>
@@ -14500,10 +14485,10 @@
       <c r="D53">
         <v>15</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>52</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>114</v>
       </c>
       <c r="H53">
@@ -14611,7 +14596,7 @@
     </row>
     <row r="54" spans="1:45">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <v>25894</v>
@@ -14619,10 +14604,10 @@
       <c r="D54">
         <v>9</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>146</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>339</v>
       </c>
       <c r="H54">
@@ -14643,7 +14628,7 @@
       <c r="O54">
         <v>61</v>
       </c>
-      <c r="P54" s="8">
+      <c r="P54" s="7">
         <v>80</v>
       </c>
       <c r="Q54">
@@ -14728,101 +14713,101 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="7" customFormat="1">
+    <row r="55" spans="1:45" s="6" customFormat="1">
       <c r="A55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="8">
+        <v>101</v>
+      </c>
+      <c r="C55" s="7">
         <v>5565</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="8">
+      <c r="D55" s="10"/>
+      <c r="E55" s="7">
         <v>36</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="7">
         <v>71</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7">
         <v>1669</v>
       </c>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8">
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7">
         <v>1003</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L55" s="7">
         <v>868</v>
       </c>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="8">
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="7">
         <v>22</v>
       </c>
-      <c r="P55" s="8">
+      <c r="P55" s="7">
         <v>21</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="Q55" s="7">
         <v>23</v>
       </c>
-      <c r="R55" s="8">
+      <c r="R55" s="7">
         <v>46</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="8">
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="7">
         <v>0.192</v>
       </c>
-      <c r="V55" s="8">
+      <c r="V55" s="7">
         <v>0.51</v>
       </c>
-      <c r="W55" s="8">
+      <c r="W55" s="7">
         <v>0.41200000000000003</v>
       </c>
-      <c r="X55" s="8">
+      <c r="X55" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="8">
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="7">
         <v>0.192</v>
       </c>
-      <c r="AB55" s="8">
+      <c r="AB55" s="7">
         <v>0.63100000000000001</v>
       </c>
-      <c r="AC55" s="11"/>
-      <c r="AD55" s="8">
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="7">
         <v>0.85199999999999998</v>
       </c>
-      <c r="AE55" s="11"/>
-      <c r="AF55" s="8">
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="7">
         <v>26</v>
       </c>
-      <c r="AG55" s="8">
+      <c r="AG55" s="7">
         <v>37</v>
       </c>
-      <c r="AH55" s="8">
+      <c r="AH55" s="7">
         <v>62</v>
       </c>
-      <c r="AI55" s="11"/>
-      <c r="AJ55" s="8">
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="7">
         <v>0.75</v>
       </c>
-      <c r="AK55" s="8">
+      <c r="AK55" s="7">
         <v>0.746</v>
       </c>
-      <c r="AL55" s="11"/>
-      <c r="AM55" s="11"/>
-      <c r="AN55" s="8">
+      <c r="AL55" s="10"/>
+      <c r="AM55" s="10"/>
+      <c r="AN55" s="7">
         <v>0.88900000000000001</v>
       </c>
-      <c r="AO55" s="8">
+      <c r="AO55" s="7">
         <v>0.69400000000000006</v>
       </c>
-      <c r="AP55" s="8">
+      <c r="AP55" s="7">
         <v>0.84499999999999997</v>
       </c>
-      <c r="AQ55" s="8">
+      <c r="AQ55" s="7">
         <v>0.54900000000000004</v>
       </c>
       <c r="AR55"/>
@@ -14830,7 +14815,7 @@
     </row>
     <row r="56" spans="1:45">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56">
         <v>6343</v>
@@ -14838,10 +14823,10 @@
       <c r="D56">
         <v>3</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>57</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>107</v>
       </c>
       <c r="H56">
@@ -14907,7 +14892,7 @@
       <c r="AD56">
         <v>0.95900000000000007</v>
       </c>
-      <c r="AE56" s="18">
+      <c r="AE56" s="16">
         <v>3</v>
       </c>
       <c r="AF56">
@@ -14919,7 +14904,7 @@
       <c r="AH56">
         <v>85</v>
       </c>
-      <c r="AI56" s="9"/>
+      <c r="AI56" s="8"/>
       <c r="AJ56">
         <v>0.68400000000000005</v>
       </c>
@@ -14947,7 +14932,7 @@
     </row>
     <row r="57" spans="1:45">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57">
         <v>4859</v>
@@ -14955,10 +14940,10 @@
       <c r="D57">
         <v>4</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>43</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>84</v>
       </c>
       <c r="H57">
@@ -14970,7 +14955,7 @@
       <c r="L57">
         <v>1401</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="7">
         <v>4</v>
       </c>
       <c r="N57">
@@ -14982,7 +14967,7 @@
       <c r="P57">
         <v>17</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="Q57" s="7">
         <v>13</v>
       </c>
       <c r="R57">
@@ -15066,7 +15051,7 @@
     </row>
     <row r="58" spans="1:45">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58">
         <v>6718</v>
@@ -15074,10 +15059,10 @@
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>48</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>96</v>
       </c>
       <c r="H58">
@@ -15155,7 +15140,7 @@
       <c r="AH58">
         <v>104</v>
       </c>
-      <c r="AI58" s="9"/>
+      <c r="AI58" s="8"/>
       <c r="AJ58">
         <v>0.70799999999999996</v>
       </c>
@@ -15183,7 +15168,7 @@
     </row>
     <row r="59" spans="1:45">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59">
         <v>16595</v>
@@ -15191,10 +15176,10 @@
       <c r="D59">
         <v>17</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>110</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>262</v>
       </c>
       <c r="H59">
@@ -15302,7 +15287,7 @@
     </row>
     <row r="60" spans="1:45">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60">
         <v>9343</v>
@@ -15310,10 +15295,10 @@
       <c r="D60">
         <v>12</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>72</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="5">
         <v>161</v>
       </c>
       <c r="H60">
@@ -15421,7 +15406,7 @@
     </row>
     <row r="61" spans="1:45">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <v>16955</v>
@@ -15429,10 +15414,10 @@
       <c r="D61">
         <v>39</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>130</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <v>286</v>
       </c>
       <c r="H61">
@@ -15540,7 +15525,7 @@
     </row>
     <row r="62" spans="1:45">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62">
         <v>7141</v>
@@ -15548,10 +15533,10 @@
       <c r="D62">
         <v>3</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>43</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="5">
         <v>92</v>
       </c>
       <c r="H62">
@@ -15659,7 +15644,7 @@
     </row>
     <row r="63" spans="1:45">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63">
         <v>11410</v>
@@ -15667,10 +15652,10 @@
       <c r="D63">
         <v>6</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>82</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="5">
         <v>163</v>
       </c>
       <c r="H63">
@@ -15778,7 +15763,7 @@
     </row>
     <row r="64" spans="1:45">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64">
         <v>5695</v>
@@ -15786,10 +15771,10 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>38</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="5">
         <v>89</v>
       </c>
       <c r="H64">
@@ -15897,7 +15882,7 @@
     </row>
     <row r="65" spans="1:43">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65">
         <v>9390</v>
@@ -15905,10 +15890,10 @@
       <c r="D65">
         <v>7</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>64</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="5">
         <v>141</v>
       </c>
       <c r="H65">
@@ -16016,7 +16001,7 @@
     </row>
     <row r="66" spans="1:43">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66">
         <v>7401</v>
@@ -16024,10 +16009,10 @@
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>62</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <v>129</v>
       </c>
       <c r="H66">
@@ -16135,7 +16120,7 @@
     </row>
     <row r="67" spans="1:43">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67">
         <v>12183</v>
@@ -16143,10 +16128,10 @@
       <c r="D67">
         <v>14</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>69</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="5">
         <v>144</v>
       </c>
       <c r="H67">
@@ -16254,7 +16239,7 @@
     </row>
     <row r="68" spans="1:43">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <v>6235</v>
@@ -16262,10 +16247,10 @@
       <c r="D68">
         <v>3</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>42</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="5">
         <v>92</v>
       </c>
       <c r="H68">
@@ -16440,51 +16425,51 @@
         <f t="shared" si="5"/>
         <v>11527</v>
       </c>
-      <c r="S69" s="10">
+      <c r="S69" s="9">
         <f>AVERAGE(S2:S68)</f>
         <v>0.38356060606060616</v>
       </c>
-      <c r="T69" s="10">
+      <c r="T69" s="9">
         <f>AVERAGE(T2:T68)</f>
         <v>0.15942424242424244</v>
       </c>
-      <c r="U69" s="10">
+      <c r="U69" s="9">
         <f t="shared" ref="U69:V69" si="6">AVERAGE(U2:U68)</f>
         <v>0.17541791044776128</v>
       </c>
-      <c r="V69" s="10">
+      <c r="V69" s="9">
         <f t="shared" si="6"/>
         <v>0.52601492537313455</v>
       </c>
-      <c r="W69" s="10">
+      <c r="W69" s="9">
         <f t="shared" ref="W69" si="7">AVERAGE(W2:W68)</f>
         <v>0.48816417910447751</v>
       </c>
-      <c r="X69" s="10">
+      <c r="X69" s="9">
         <f t="shared" ref="X69" si="8">AVERAGE(X2:X68)</f>
         <v>0.42395522388059698</v>
       </c>
-      <c r="Y69" s="10">
+      <c r="Y69" s="9">
         <f t="shared" ref="Y69" si="9">AVERAGE(Y2:Y68)</f>
         <v>0.37515151515151524</v>
       </c>
-      <c r="Z69" s="10">
+      <c r="Z69" s="9">
         <f t="shared" ref="Z69" si="10">AVERAGE(Z2:Z68)</f>
         <v>0.12424242424242427</v>
       </c>
-      <c r="AA69" s="10">
+      <c r="AA69" s="9">
         <f t="shared" ref="AA69" si="11">AVERAGE(AA2:AA68)</f>
         <v>0.14450746268656717</v>
       </c>
-      <c r="AB69" s="10">
+      <c r="AB69" s="9">
         <f t="shared" ref="AB69" si="12">AVERAGE(AB2:AB68)</f>
         <v>0.57408955223880598</v>
       </c>
-      <c r="AC69" s="10">
+      <c r="AC69" s="9">
         <f t="shared" ref="AC69" si="13">AVERAGE(AC2:AC68)</f>
         <v>0.41025757575757577</v>
       </c>
-      <c r="AD69" s="10">
+      <c r="AD69" s="9">
         <f t="shared" ref="AD69" si="14">AVERAGE(AD2:AD68)</f>
         <v>0.85792537313432826</v>
       </c>
@@ -16504,555 +16489,41 @@
         <f>SUM(AH2:AH68)</f>
         <v>20249</v>
       </c>
-      <c r="AI69" s="10">
+      <c r="AI69" s="9">
         <f>AVERAGE(AI2:AI68)</f>
         <v>0.74114062499999989</v>
       </c>
-      <c r="AJ69" s="10">
+      <c r="AJ69" s="9">
         <f t="shared" ref="AJ69:AK69" si="15">AVERAGE(AJ2:AJ68)</f>
         <v>0.77268656716417905</v>
       </c>
-      <c r="AK69" s="10">
+      <c r="AK69" s="9">
         <f t="shared" si="15"/>
         <v>0.70234328358208942</v>
       </c>
-      <c r="AL69" s="10">
+      <c r="AL69" s="9">
         <f t="shared" ref="AL69" si="16">AVERAGE(AL2:AL68)</f>
         <v>0.75496969696969696</v>
       </c>
-      <c r="AM69" s="10">
+      <c r="AM69" s="9">
         <f t="shared" ref="AM69" si="17">AVERAGE(AM2:AM68)</f>
         <v>0.5977424242424243</v>
       </c>
-      <c r="AN69" s="10">
+      <c r="AN69" s="9">
         <f t="shared" ref="AN69" si="18">AVERAGE(AN2:AN68)</f>
         <v>0.8524029850746272</v>
       </c>
-      <c r="AO69" s="10">
+      <c r="AO69" s="9">
         <f t="shared" ref="AO69" si="19">AVERAGE(AO2:AO68)</f>
         <v>0.65613432835820928</v>
       </c>
-      <c r="AP69" s="10">
+      <c r="AP69" s="9">
         <f t="shared" ref="AP69" si="20">AVERAGE(AP2:AP68)</f>
         <v>0.79468656716417885</v>
       </c>
-      <c r="AQ69" s="10">
+      <c r="AQ69" s="9">
         <f t="shared" ref="AQ69" si="21">AVERAGE(AQ2:AQ68)</f>
         <v>0.54247761194029842</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F7DF14-73D3-4D4E-A4FB-3408A0018796}">
-  <dimension ref="A1:A48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982ACB66-DEA6-4F04-813A-96B089F96314}">
-  <dimension ref="A1:A48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
